--- a/Data/sr_GLMM_results_data.xlsx
+++ b/Data/sr_GLMM_results_data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72546574C\Documents\LANEAN\GLMM_SR_Sports\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/marticasals_gencat_cat/Documents/Temes/GLMM_RS_paper/JSA/review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F3DE79-343E-4922-85E4-ECDF9F58C6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FCB661C-C818-468C-A96B-2E0818854BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sr_GLMM_results_data_rev_github" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +30,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="W21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="X21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="K25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="418">
   <si>
     <t>Title</t>
   </si>
@@ -1443,6 +1443,9 @@
   </si>
   <si>
     <t>Binary</t>
+  </si>
+  <si>
+    <t>Open Acess</t>
   </si>
 </sst>
 </file>
@@ -1684,9 +1687,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1724,7 +1727,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1830,7 +1833,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1972,7 +1975,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1980,43 +1983,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH56"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="110.5703125" customWidth="1"/>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="1" max="1" width="110.5546875" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="23.28515625" customWidth="1"/>
-    <col min="20" max="20" width="36.28515625" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" customWidth="1"/>
-    <col min="22" max="22" width="19.42578125" customWidth="1"/>
-    <col min="23" max="23" width="29.5703125" customWidth="1"/>
-    <col min="24" max="24" width="26.42578125" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" customWidth="1"/>
-    <col min="27" max="27" width="25.85546875" customWidth="1"/>
-    <col min="28" max="28" width="30" customWidth="1"/>
-    <col min="29" max="29" width="26.7109375" customWidth="1"/>
-    <col min="30" max="30" width="29.28515625" customWidth="1"/>
-    <col min="31" max="31" width="22.28515625" customWidth="1"/>
-    <col min="32" max="32" width="29.140625" customWidth="1"/>
-    <col min="33" max="33" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.88671875" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="13" max="13" width="28.33203125" customWidth="1"/>
+    <col min="16" max="16" width="20.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20.109375" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" customWidth="1"/>
+    <col min="20" max="20" width="23.33203125" customWidth="1"/>
+    <col min="21" max="21" width="36.33203125" customWidth="1"/>
+    <col min="22" max="22" width="19.6640625" customWidth="1"/>
+    <col min="23" max="23" width="19.44140625" customWidth="1"/>
+    <col min="24" max="24" width="29.5546875" customWidth="1"/>
+    <col min="25" max="25" width="26.44140625" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" customWidth="1"/>
+    <col min="28" max="28" width="25.88671875" customWidth="1"/>
+    <col min="29" max="29" width="30" customWidth="1"/>
+    <col min="30" max="30" width="26.6640625" customWidth="1"/>
+    <col min="31" max="31" width="29.33203125" customWidth="1"/>
+    <col min="32" max="32" width="22.33203125" customWidth="1"/>
+    <col min="33" max="33" width="29.109375" customWidth="1"/>
+    <col min="34" max="34" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2033,94 +2038,97 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2137,94 +2145,97 @@
         <v>37</v>
       </c>
       <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>213</v>
       </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
       <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
         <v>44</v>
       </c>
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
       <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>47</v>
       </c>
-      <c r="R2" t="s">
-        <v>39</v>
-      </c>
       <c r="S2" t="s">
         <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" t="s">
         <v>49</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>51</v>
       </c>
-      <c r="X2" t="s">
-        <v>39</v>
-      </c>
       <c r="Y2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AA2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AB2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" t="s">
-        <v>48</v>
-      </c>
       <c r="AD2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>54</v>
       </c>
-      <c r="AF2" t="s">
-        <v>39</v>
-      </c>
       <c r="AG2" t="s">
         <v>39</v>
       </c>
       <c r="AH2" t="s">
         <v>39</v>
       </c>
+      <c r="AI2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -2241,44 +2252,44 @@
         <v>58</v>
       </c>
       <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
         <v>59</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1291</v>
       </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
       <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>42</v>
       </c>
-      <c r="L3" t="s">
-        <v>48</v>
-      </c>
       <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>64</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>66</v>
       </c>
-      <c r="R3" t="s">
-        <v>39</v>
-      </c>
       <c r="S3" t="s">
         <v>39</v>
       </c>
@@ -2286,20 +2297,20 @@
         <v>39</v>
       </c>
       <c r="U3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" t="s">
         <v>67</v>
       </c>
-      <c r="V3" t="s">
-        <v>39</v>
-      </c>
       <c r="W3" t="s">
         <v>39</v>
       </c>
       <c r="X3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" t="s">
         <v>68</v>
       </c>
-      <c r="Y3" t="s">
-        <v>43</v>
-      </c>
       <c r="Z3" t="s">
         <v>43</v>
       </c>
@@ -2307,11 +2318,11 @@
         <v>43</v>
       </c>
       <c r="AB3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" t="s">
-        <v>39</v>
-      </c>
       <c r="AD3" t="s">
         <v>39</v>
       </c>
@@ -2327,8 +2338,11 @@
       <c r="AH3" t="s">
         <v>39</v>
       </c>
+      <c r="AI3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -2345,44 +2359,44 @@
         <v>72</v>
       </c>
       <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>84</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>76</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>77</v>
       </c>
-      <c r="L4" t="s">
-        <v>43</v>
-      </c>
       <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
         <v>78</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>63</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>79</v>
       </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
       <c r="Q4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" t="s">
         <v>47</v>
       </c>
-      <c r="R4" t="s">
-        <v>39</v>
-      </c>
       <c r="S4" t="s">
         <v>39</v>
       </c>
@@ -2402,7 +2416,7 @@
         <v>39</v>
       </c>
       <c r="Y4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s">
         <v>43</v>
@@ -2411,11 +2425,11 @@
         <v>43</v>
       </c>
       <c r="AB4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" t="s">
         <v>416</v>
       </c>
-      <c r="AC4" t="s">
-        <v>39</v>
-      </c>
       <c r="AD4" t="s">
         <v>39</v>
       </c>
@@ -2431,8 +2445,11 @@
       <c r="AH4" t="s">
         <v>39</v>
       </c>
+      <c r="AI4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2449,47 +2466,47 @@
         <v>82</v>
       </c>
       <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
         <v>73</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>752</v>
       </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>84</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>42</v>
       </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
       <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>79</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>64</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>86</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>66</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>87</v>
       </c>
-      <c r="S5" t="s">
-        <v>39</v>
-      </c>
       <c r="T5" t="s">
         <v>39</v>
       </c>
@@ -2506,7 +2523,7 @@
         <v>39</v>
       </c>
       <c r="Y5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z5" t="s">
         <v>43</v>
@@ -2515,11 +2532,11 @@
         <v>43</v>
       </c>
       <c r="AB5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC5" t="s">
         <v>88</v>
       </c>
-      <c r="AC5" t="s">
-        <v>39</v>
-      </c>
       <c r="AD5" t="s">
         <v>39</v>
       </c>
@@ -2535,8 +2552,11 @@
       <c r="AH5" t="s">
         <v>39</v>
       </c>
+      <c r="AI5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -2553,64 +2573,64 @@
         <v>92</v>
       </c>
       <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
         <v>73</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
       <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
         <v>93</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>42</v>
       </c>
-      <c r="L6" t="s">
-        <v>43</v>
-      </c>
       <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
         <v>94</v>
       </c>
-      <c r="N6" t="s">
-        <v>39</v>
-      </c>
       <c r="O6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" t="s">
         <v>64</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>95</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>66</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>96</v>
       </c>
-      <c r="S6" t="s">
-        <v>39</v>
-      </c>
       <c r="T6" t="s">
         <v>39</v>
       </c>
       <c r="U6" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" t="s">
         <v>49</v>
       </c>
-      <c r="V6" t="s">
-        <v>39</v>
-      </c>
       <c r="W6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" t="s">
         <v>97</v>
       </c>
-      <c r="X6" t="s">
-        <v>39</v>
-      </c>
       <c r="Y6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z6" t="s">
         <v>43</v>
@@ -2619,11 +2639,11 @@
         <v>43</v>
       </c>
       <c r="AB6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC6" t="s">
         <v>88</v>
       </c>
-      <c r="AC6" t="s">
-        <v>39</v>
-      </c>
       <c r="AD6" t="s">
         <v>39</v>
       </c>
@@ -2639,8 +2659,11 @@
       <c r="AH6" t="s">
         <v>39</v>
       </c>
+      <c r="AI6" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>98</v>
       </c>
@@ -2656,45 +2679,45 @@
       <c r="E7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="8">
         <v>1446</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="M7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="S7" s="8" t="s">
         <v>39</v>
       </c>
@@ -2702,19 +2725,19 @@
         <v>39</v>
       </c>
       <c r="U7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="W7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="X7" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="Y7" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Z7" s="8" t="s">
         <v>48</v>
@@ -2723,11 +2746,11 @@
         <v>48</v>
       </c>
       <c r="AB7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AC7" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="AD7" s="8" t="s">
         <v>39</v>
       </c>
@@ -2743,8 +2766,11 @@
       <c r="AH7" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="AI7" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2761,44 +2787,44 @@
         <v>108</v>
       </c>
       <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1129</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>109</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>110</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>111</v>
       </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" t="s">
         <v>62</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>79</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>64</v>
       </c>
-      <c r="P8" t="s">
-        <v>39</v>
-      </c>
       <c r="Q8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" t="s">
         <v>66</v>
       </c>
-      <c r="R8" t="s">
-        <v>39</v>
-      </c>
       <c r="S8" t="s">
         <v>39</v>
       </c>
@@ -2806,11 +2832,11 @@
         <v>39</v>
       </c>
       <c r="U8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" t="s">
         <v>49</v>
       </c>
-      <c r="V8" t="s">
-        <v>39</v>
-      </c>
       <c r="W8" t="s">
         <v>39</v>
       </c>
@@ -2818,7 +2844,7 @@
         <v>39</v>
       </c>
       <c r="Y8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z8" t="s">
         <v>43</v>
@@ -2827,11 +2853,11 @@
         <v>43</v>
       </c>
       <c r="AB8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC8" t="s">
         <v>88</v>
       </c>
-      <c r="AC8" t="s">
-        <v>39</v>
-      </c>
       <c r="AD8" t="s">
         <v>39</v>
       </c>
@@ -2842,13 +2868,16 @@
         <v>39</v>
       </c>
       <c r="AG8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH8" t="s">
         <v>112</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -2865,44 +2894,44 @@
         <v>116</v>
       </c>
       <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
         <v>59</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>101</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>117</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>118</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>76</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>42</v>
       </c>
-      <c r="L9" t="s">
-        <v>48</v>
-      </c>
       <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" t="s">
         <v>62</v>
       </c>
-      <c r="N9" t="s">
-        <v>39</v>
-      </c>
       <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" t="s">
         <v>45</v>
       </c>
-      <c r="P9" t="s">
-        <v>39</v>
-      </c>
       <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" t="s">
         <v>47</v>
       </c>
-      <c r="R9" t="s">
-        <v>39</v>
-      </c>
       <c r="S9" t="s">
         <v>39</v>
       </c>
@@ -2910,20 +2939,20 @@
         <v>39</v>
       </c>
       <c r="U9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" t="s">
         <v>67</v>
       </c>
-      <c r="V9" t="s">
-        <v>39</v>
-      </c>
       <c r="W9" t="s">
         <v>39</v>
       </c>
       <c r="X9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" t="s">
         <v>68</v>
       </c>
-      <c r="Y9" t="s">
-        <v>43</v>
-      </c>
       <c r="Z9" t="s">
         <v>43</v>
       </c>
@@ -2931,11 +2960,11 @@
         <v>43</v>
       </c>
       <c r="AB9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC9" t="s">
         <v>416</v>
       </c>
-      <c r="AC9" t="s">
-        <v>39</v>
-      </c>
       <c r="AD9" t="s">
         <v>39</v>
       </c>
@@ -2951,8 +2980,11 @@
       <c r="AH9" t="s">
         <v>39</v>
       </c>
+      <c r="AI9" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -2969,44 +3001,44 @@
         <v>121</v>
       </c>
       <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
         <v>73</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>237</v>
       </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
       <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
         <v>122</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>123</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>42</v>
       </c>
-      <c r="L10" t="s">
-        <v>48</v>
-      </c>
       <c r="M10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" t="s">
         <v>59</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>79</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>45</v>
       </c>
-      <c r="P10" t="s">
-        <v>39</v>
-      </c>
       <c r="Q10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" t="s">
         <v>47</v>
       </c>
-      <c r="R10" t="s">
-        <v>39</v>
-      </c>
       <c r="S10" t="s">
         <v>39</v>
       </c>
@@ -3026,7 +3058,7 @@
         <v>39</v>
       </c>
       <c r="Y10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s">
         <v>43</v>
@@ -3035,7 +3067,7 @@
         <v>43</v>
       </c>
       <c r="AB10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AC10" t="s">
         <v>39</v>
@@ -3055,8 +3087,11 @@
       <c r="AH10" t="s">
         <v>39</v>
       </c>
+      <c r="AI10" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -3073,44 +3108,44 @@
         <v>126</v>
       </c>
       <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
         <v>73</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1046</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="I11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>128</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>129</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>77</v>
       </c>
-      <c r="L11" t="s">
-        <v>43</v>
-      </c>
       <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" t="s">
         <v>130</v>
       </c>
-      <c r="N11" t="s">
-        <v>39</v>
-      </c>
       <c r="O11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" t="s">
         <v>45</v>
       </c>
-      <c r="P11" t="s">
-        <v>39</v>
-      </c>
       <c r="Q11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" t="s">
         <v>47</v>
       </c>
-      <c r="R11" t="s">
-        <v>39</v>
-      </c>
       <c r="S11" t="s">
         <v>39</v>
       </c>
@@ -3118,11 +3153,11 @@
         <v>39</v>
       </c>
       <c r="U11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" t="s">
         <v>49</v>
       </c>
-      <c r="V11" t="s">
-        <v>39</v>
-      </c>
       <c r="W11" t="s">
         <v>39</v>
       </c>
@@ -3130,7 +3165,7 @@
         <v>39</v>
       </c>
       <c r="Y11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s">
         <v>43</v>
@@ -3139,11 +3174,11 @@
         <v>43</v>
       </c>
       <c r="AB11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC11" t="s">
         <v>131</v>
       </c>
-      <c r="AC11" t="s">
-        <v>39</v>
-      </c>
       <c r="AD11" t="s">
         <v>39</v>
       </c>
@@ -3159,8 +3194,11 @@
       <c r="AH11" t="s">
         <v>39</v>
       </c>
+      <c r="AI11" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>132</v>
       </c>
@@ -3177,64 +3215,64 @@
         <v>134</v>
       </c>
       <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
         <v>59</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>136</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
-        <v>48</v>
-      </c>
       <c r="M12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" t="s">
         <v>137</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>63</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>64</v>
       </c>
-      <c r="P12" t="s">
-        <v>39</v>
-      </c>
       <c r="Q12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" t="s">
         <v>66</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>96</v>
       </c>
-      <c r="S12" t="s">
-        <v>39</v>
-      </c>
       <c r="T12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U12" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12" t="s">
         <v>49</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>50</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>138</v>
       </c>
-      <c r="X12" t="s">
-        <v>39</v>
-      </c>
       <c r="Y12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z12" t="s">
         <v>43</v>
@@ -3243,28 +3281,31 @@
         <v>43</v>
       </c>
       <c r="AB12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC12" t="s">
         <v>416</v>
       </c>
-      <c r="AC12" t="s">
-        <v>48</v>
-      </c>
       <c r="AD12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE12" t="s">
         <v>139</v>
       </c>
-      <c r="AE12" t="s">
-        <v>39</v>
-      </c>
       <c r="AF12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG12" t="s">
         <v>140</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>112</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -3281,64 +3322,64 @@
         <v>143</v>
       </c>
       <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
         <v>73</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>33</v>
       </c>
-      <c r="H13" t="s">
-        <v>39</v>
-      </c>
       <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s">
         <v>144</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>41</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>42</v>
       </c>
-      <c r="L13" t="s">
-        <v>43</v>
-      </c>
       <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
         <v>85</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>63</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>64</v>
       </c>
-      <c r="P13" t="s">
-        <v>39</v>
-      </c>
       <c r="Q13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" t="s">
         <v>47</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>96</v>
       </c>
-      <c r="S13" t="s">
-        <v>39</v>
-      </c>
       <c r="T13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U13" t="s">
+        <v>48</v>
+      </c>
+      <c r="V13" t="s">
         <v>49</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>50</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>138</v>
       </c>
-      <c r="X13" t="s">
-        <v>39</v>
-      </c>
       <c r="Y13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s">
         <v>43</v>
@@ -3347,28 +3388,31 @@
         <v>43</v>
       </c>
       <c r="AB13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC13" t="s">
         <v>52</v>
       </c>
-      <c r="AC13" t="s">
-        <v>48</v>
-      </c>
       <c r="AD13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE13" t="s">
         <v>139</v>
       </c>
-      <c r="AE13" t="s">
-        <v>39</v>
-      </c>
       <c r="AF13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG13" t="s">
         <v>140</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>112</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -3385,32 +3429,32 @@
         <v>58</v>
       </c>
       <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
         <v>59</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>102</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>148</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>149</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>150</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>42</v>
       </c>
-      <c r="L14" t="s">
-        <v>43</v>
-      </c>
       <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
         <v>151</v>
       </c>
-      <c r="N14" t="s">
-        <v>39</v>
-      </c>
       <c r="O14" t="s">
         <v>39</v>
       </c>
@@ -3418,31 +3462,31 @@
         <v>39</v>
       </c>
       <c r="Q14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" t="s">
         <v>66</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>96</v>
       </c>
-      <c r="S14" t="s">
-        <v>39</v>
-      </c>
       <c r="T14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U14" t="s">
+        <v>48</v>
+      </c>
+      <c r="V14" t="s">
         <v>49</v>
       </c>
-      <c r="V14" t="s">
-        <v>39</v>
-      </c>
       <c r="W14" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" t="s">
         <v>138</v>
       </c>
-      <c r="X14" t="s">
-        <v>39</v>
-      </c>
       <c r="Y14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z14" t="s">
         <v>43</v>
@@ -3451,11 +3495,11 @@
         <v>43</v>
       </c>
       <c r="AB14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC14" t="s">
         <v>416</v>
       </c>
-      <c r="AC14" t="s">
-        <v>39</v>
-      </c>
       <c r="AD14" t="s">
         <v>39</v>
       </c>
@@ -3471,8 +3515,11 @@
       <c r="AH14" t="s">
         <v>39</v>
       </c>
+      <c r="AI14" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>152</v>
       </c>
@@ -3489,52 +3536,52 @@
         <v>154</v>
       </c>
       <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
         <v>73</v>
       </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
       <c r="H15" t="s">
         <v>39</v>
       </c>
       <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
         <v>155</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>156</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>42</v>
       </c>
-      <c r="L15" t="s">
-        <v>48</v>
-      </c>
       <c r="M15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" t="s">
         <v>62</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>63</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>64</v>
       </c>
-      <c r="P15" t="s">
-        <v>39</v>
-      </c>
       <c r="Q15" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" t="s">
         <v>66</v>
       </c>
-      <c r="R15" t="s">
-        <v>39</v>
-      </c>
       <c r="S15" t="s">
         <v>39</v>
       </c>
       <c r="T15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U15" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="V15" t="s">
         <v>39</v>
@@ -3546,20 +3593,20 @@
         <v>39</v>
       </c>
       <c r="Y15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Z15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AA15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AB15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC15" t="s">
         <v>52</v>
       </c>
-      <c r="AC15" t="s">
-        <v>39</v>
-      </c>
       <c r="AD15" t="s">
         <v>39</v>
       </c>
@@ -3575,8 +3622,11 @@
       <c r="AH15" t="s">
         <v>39</v>
       </c>
+      <c r="AI15" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -3593,44 +3643,44 @@
         <v>160</v>
       </c>
       <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
         <v>59</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>54</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>161</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>162</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>76</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>42</v>
       </c>
-      <c r="L16" t="s">
-        <v>43</v>
-      </c>
       <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" t="s">
         <v>59</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>79</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>45</v>
       </c>
-      <c r="P16" t="s">
-        <v>39</v>
-      </c>
       <c r="Q16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" t="s">
         <v>47</v>
       </c>
-      <c r="R16" t="s">
-        <v>39</v>
-      </c>
       <c r="S16" t="s">
         <v>39</v>
       </c>
@@ -3638,11 +3688,11 @@
         <v>39</v>
       </c>
       <c r="U16" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" t="s">
         <v>67</v>
       </c>
-      <c r="V16" t="s">
-        <v>39</v>
-      </c>
       <c r="W16" t="s">
         <v>39</v>
       </c>
@@ -3650,7 +3700,7 @@
         <v>39</v>
       </c>
       <c r="Y16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z16" t="s">
         <v>43</v>
@@ -3659,7 +3709,7 @@
         <v>43</v>
       </c>
       <c r="AB16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AC16" t="s">
         <v>39</v>
@@ -3679,8 +3729,11 @@
       <c r="AH16" t="s">
         <v>39</v>
       </c>
+      <c r="AI16" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="17" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -3697,44 +3750,44 @@
         <v>160</v>
       </c>
       <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
         <v>59</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>123</v>
       </c>
-      <c r="H17" t="s">
-        <v>39</v>
-      </c>
       <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
         <v>165</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>166</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>42</v>
       </c>
-      <c r="L17" t="s">
-        <v>48</v>
-      </c>
       <c r="M17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" t="s">
         <v>59</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>63</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>64</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>167</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>66</v>
       </c>
-      <c r="R17" t="s">
-        <v>39</v>
-      </c>
       <c r="S17" t="s">
         <v>39</v>
       </c>
@@ -3754,7 +3807,7 @@
         <v>39</v>
       </c>
       <c r="Y17" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Z17" t="s">
         <v>48</v>
@@ -3763,13 +3816,13 @@
         <v>48</v>
       </c>
       <c r="AB17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC17" t="s">
         <v>168</v>
       </c>
-      <c r="AC17" t="s">
-        <v>48</v>
-      </c>
       <c r="AD17" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AE17" t="s">
         <v>39</v>
@@ -3777,14 +3830,17 @@
       <c r="AF17" t="s">
         <v>39</v>
       </c>
-      <c r="AG17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AG17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -3801,44 +3857,44 @@
         <v>172</v>
       </c>
       <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
         <v>73</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>591</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>173</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>174</v>
       </c>
-      <c r="J18" t="s">
-        <v>39</v>
-      </c>
       <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" t="s">
         <v>77</v>
       </c>
-      <c r="L18" t="s">
-        <v>48</v>
-      </c>
       <c r="M18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" t="s">
         <v>59</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>79</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>45</v>
       </c>
-      <c r="P18" t="s">
-        <v>39</v>
-      </c>
       <c r="Q18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" t="s">
         <v>47</v>
       </c>
-      <c r="R18" t="s">
-        <v>39</v>
-      </c>
       <c r="S18" t="s">
         <v>39</v>
       </c>
@@ -3846,11 +3902,11 @@
         <v>39</v>
       </c>
       <c r="U18" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" t="s">
         <v>175</v>
       </c>
-      <c r="V18" t="s">
-        <v>39</v>
-      </c>
       <c r="W18" t="s">
         <v>39</v>
       </c>
@@ -3858,7 +3914,7 @@
         <v>39</v>
       </c>
       <c r="Y18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z18" t="s">
         <v>43</v>
@@ -3867,7 +3923,7 @@
         <v>43</v>
       </c>
       <c r="AB18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AC18" t="s">
         <v>39</v>
@@ -3887,8 +3943,11 @@
       <c r="AH18" t="s">
         <v>39</v>
       </c>
+      <c r="AI18" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="19" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>176</v>
       </c>
@@ -3905,44 +3964,44 @@
         <v>58</v>
       </c>
       <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
         <v>59</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>641</v>
       </c>
-      <c r="H19" t="s">
-        <v>39</v>
-      </c>
       <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
         <v>178</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>179</v>
       </c>
-      <c r="K19" t="s">
-        <v>39</v>
-      </c>
       <c r="L19" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" t="s">
         <v>85</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>79</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>64</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>180</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>66</v>
       </c>
-      <c r="R19" t="s">
-        <v>39</v>
-      </c>
       <c r="S19" t="s">
         <v>39</v>
       </c>
@@ -3950,11 +4009,11 @@
         <v>39</v>
       </c>
       <c r="U19" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" t="s">
         <v>49</v>
       </c>
-      <c r="V19" t="s">
-        <v>39</v>
-      </c>
       <c r="W19" t="s">
         <v>39</v>
       </c>
@@ -3962,20 +4021,20 @@
         <v>39</v>
       </c>
       <c r="Y19" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Z19" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AA19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AB19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC19" t="s">
         <v>52</v>
       </c>
-      <c r="AC19" t="s">
-        <v>39</v>
-      </c>
       <c r="AD19" t="s">
         <v>39</v>
       </c>
@@ -3985,14 +4044,17 @@
       <c r="AF19" t="s">
         <v>39</v>
       </c>
-      <c r="AG19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AG19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>181</v>
       </c>
@@ -4009,44 +4071,44 @@
         <v>58</v>
       </c>
       <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
         <v>59</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>89</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>184</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>185</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>76</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>42</v>
       </c>
-      <c r="L20" t="s">
-        <v>48</v>
-      </c>
       <c r="M20" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" t="s">
         <v>151</v>
       </c>
-      <c r="N20" t="s">
-        <v>39</v>
-      </c>
       <c r="O20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" t="s">
         <v>64</v>
       </c>
-      <c r="P20" t="s">
-        <v>39</v>
-      </c>
       <c r="Q20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" t="s">
         <v>66</v>
       </c>
-      <c r="R20" t="s">
-        <v>39</v>
-      </c>
       <c r="S20" t="s">
         <v>39</v>
       </c>
@@ -4054,20 +4116,20 @@
         <v>39</v>
       </c>
       <c r="U20" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20" t="s">
         <v>49</v>
       </c>
-      <c r="V20" t="s">
-        <v>39</v>
-      </c>
       <c r="W20" t="s">
         <v>39</v>
       </c>
       <c r="X20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y20" t="s">
         <v>186</v>
       </c>
-      <c r="Y20" t="s">
-        <v>43</v>
-      </c>
       <c r="Z20" t="s">
         <v>43</v>
       </c>
@@ -4075,11 +4137,11 @@
         <v>43</v>
       </c>
       <c r="AB20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC20" t="s">
         <v>416</v>
       </c>
-      <c r="AC20" t="s">
-        <v>39</v>
-      </c>
       <c r="AD20" t="s">
         <v>39</v>
       </c>
@@ -4090,13 +4152,16 @@
         <v>39</v>
       </c>
       <c r="AG20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s">
         <v>187</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>188</v>
       </c>
@@ -4113,56 +4178,56 @@
         <v>190</v>
       </c>
       <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
         <v>59</v>
       </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
       <c r="H21" t="s">
         <v>39</v>
       </c>
       <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
         <v>191</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>192</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>42</v>
       </c>
-      <c r="L21" t="s">
-        <v>43</v>
-      </c>
       <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" t="s">
         <v>193</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>63</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>64</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>194</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>66</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>195</v>
       </c>
-      <c r="S21" t="s">
-        <v>39</v>
-      </c>
       <c r="T21" t="s">
         <v>39</v>
       </c>
       <c r="U21" t="s">
+        <v>39</v>
+      </c>
+      <c r="V21" t="s">
         <v>49</v>
       </c>
-      <c r="V21" t="s">
-        <v>39</v>
-      </c>
       <c r="W21" t="s">
         <v>39</v>
       </c>
@@ -4170,7 +4235,7 @@
         <v>39</v>
       </c>
       <c r="Y21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z21" t="s">
         <v>43</v>
@@ -4179,13 +4244,13 @@
         <v>43</v>
       </c>
       <c r="AB21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC21" t="s">
         <v>52</v>
       </c>
-      <c r="AC21" t="s">
-        <v>48</v>
-      </c>
       <c r="AD21" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AE21" t="s">
         <v>39</v>
@@ -4199,8 +4264,11 @@
       <c r="AH21" t="s">
         <v>39</v>
       </c>
+      <c r="AI21" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>196</v>
       </c>
@@ -4217,44 +4285,44 @@
         <v>73</v>
       </c>
       <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
         <v>73</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>32</v>
       </c>
-      <c r="H22" t="s">
-        <v>39</v>
-      </c>
       <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" t="s">
         <v>198</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>414</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>42</v>
       </c>
-      <c r="L22" t="s">
-        <v>48</v>
-      </c>
       <c r="M22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" t="s">
         <v>62</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>63</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>45</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>200</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>66</v>
       </c>
-      <c r="R22" t="s">
-        <v>39</v>
-      </c>
       <c r="S22" t="s">
         <v>39</v>
       </c>
@@ -4262,11 +4330,11 @@
         <v>39</v>
       </c>
       <c r="U22" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" t="s">
         <v>175</v>
       </c>
-      <c r="V22" t="s">
-        <v>39</v>
-      </c>
       <c r="W22" t="s">
         <v>39</v>
       </c>
@@ -4274,7 +4342,7 @@
         <v>39</v>
       </c>
       <c r="Y22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z22" t="s">
         <v>43</v>
@@ -4283,11 +4351,11 @@
         <v>43</v>
       </c>
       <c r="AB22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC22" t="s">
         <v>416</v>
       </c>
-      <c r="AC22" t="s">
-        <v>39</v>
-      </c>
       <c r="AD22" t="s">
         <v>39</v>
       </c>
@@ -4303,8 +4371,11 @@
       <c r="AH22" t="s">
         <v>39</v>
       </c>
+      <c r="AI22" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>201</v>
       </c>
@@ -4321,56 +4392,56 @@
         <v>190</v>
       </c>
       <c r="F23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
         <v>59</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>20</v>
       </c>
-      <c r="H23" t="s">
-        <v>39</v>
-      </c>
       <c r="I23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" t="s">
         <v>203</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>414</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>42</v>
       </c>
-      <c r="L23" t="s">
-        <v>48</v>
-      </c>
       <c r="M23" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" t="s">
         <v>62</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>63</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>64</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>204</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>66</v>
       </c>
-      <c r="R23" t="s">
-        <v>39</v>
-      </c>
       <c r="S23" t="s">
         <v>39</v>
       </c>
       <c r="T23" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U23" t="s">
+        <v>48</v>
+      </c>
+      <c r="V23" t="s">
         <v>175</v>
       </c>
-      <c r="V23" t="s">
-        <v>39</v>
-      </c>
       <c r="W23" t="s">
         <v>39</v>
       </c>
@@ -4378,20 +4449,20 @@
         <v>39</v>
       </c>
       <c r="Y23" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Z23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AA23" t="s">
         <v>43</v>
       </c>
       <c r="AB23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC23" t="s">
         <v>416</v>
       </c>
-      <c r="AC23" t="s">
-        <v>39</v>
-      </c>
       <c r="AD23" t="s">
         <v>39</v>
       </c>
@@ -4407,8 +4478,11 @@
       <c r="AH23" t="s">
         <v>39</v>
       </c>
+      <c r="AI23" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>205</v>
       </c>
@@ -4425,56 +4499,56 @@
         <v>58</v>
       </c>
       <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
         <v>59</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>21</v>
       </c>
-      <c r="H24" t="s">
-        <v>39</v>
-      </c>
       <c r="I24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" t="s">
         <v>207</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>199</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>42</v>
       </c>
-      <c r="L24" t="s">
-        <v>48</v>
-      </c>
       <c r="M24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" t="s">
         <v>62</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>63</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>64</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>208</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>66</v>
       </c>
-      <c r="R24" t="s">
-        <v>39</v>
-      </c>
       <c r="S24" t="s">
         <v>39</v>
       </c>
       <c r="T24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U24" t="s">
+        <v>48</v>
+      </c>
+      <c r="V24" t="s">
         <v>175</v>
       </c>
-      <c r="V24" t="s">
-        <v>39</v>
-      </c>
       <c r="W24" t="s">
         <v>39</v>
       </c>
@@ -4482,7 +4556,7 @@
         <v>39</v>
       </c>
       <c r="Y24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z24" t="s">
         <v>43</v>
@@ -4491,11 +4565,11 @@
         <v>43</v>
       </c>
       <c r="AB24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC24" t="s">
         <v>209</v>
       </c>
-      <c r="AC24" t="s">
-        <v>39</v>
-      </c>
       <c r="AD24" t="s">
         <v>39</v>
       </c>
@@ -4511,8 +4585,11 @@
       <c r="AH24" t="s">
         <v>39</v>
       </c>
+      <c r="AI24" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>210</v>
       </c>
@@ -4529,44 +4606,44 @@
         <v>213</v>
       </c>
       <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
         <v>59</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>27</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>214</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>215</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>216</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>42</v>
       </c>
-      <c r="L25" t="s">
-        <v>48</v>
-      </c>
       <c r="M25" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" t="s">
         <v>217</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>79</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>45</v>
       </c>
-      <c r="P25" t="s">
-        <v>39</v>
-      </c>
       <c r="Q25" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" t="s">
         <v>47</v>
       </c>
-      <c r="R25" t="s">
-        <v>39</v>
-      </c>
       <c r="S25" t="s">
         <v>39</v>
       </c>
@@ -4574,19 +4651,19 @@
         <v>39</v>
       </c>
       <c r="U25" t="s">
+        <v>39</v>
+      </c>
+      <c r="V25" t="s">
         <v>49</v>
       </c>
-      <c r="V25" t="s">
-        <v>39</v>
-      </c>
       <c r="W25" t="s">
+        <v>39</v>
+      </c>
+      <c r="X25" t="s">
         <v>138</v>
       </c>
-      <c r="X25" t="s">
-        <v>39</v>
-      </c>
       <c r="Y25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z25" t="s">
         <v>43</v>
@@ -4595,7 +4672,7 @@
         <v>43</v>
       </c>
       <c r="AB25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AC25" t="s">
         <v>39</v>
@@ -4615,8 +4692,11 @@
       <c r="AH25" t="s">
         <v>39</v>
       </c>
+      <c r="AI25" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -4633,44 +4713,44 @@
         <v>143</v>
       </c>
       <c r="F26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" t="s">
         <v>73</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>94</v>
       </c>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
       <c r="I26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" t="s">
         <v>221</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>222</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>42</v>
       </c>
-      <c r="L26" t="s">
-        <v>48</v>
-      </c>
       <c r="M26" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" t="s">
         <v>217</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>79</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>64</v>
       </c>
-      <c r="P26" t="s">
-        <v>39</v>
-      </c>
       <c r="Q26" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" t="s">
         <v>66</v>
       </c>
-      <c r="R26" t="s">
-        <v>39</v>
-      </c>
       <c r="S26" t="s">
         <v>39</v>
       </c>
@@ -4678,11 +4758,11 @@
         <v>39</v>
       </c>
       <c r="U26" t="s">
+        <v>39</v>
+      </c>
+      <c r="V26" t="s">
         <v>223</v>
       </c>
-      <c r="V26" t="s">
-        <v>39</v>
-      </c>
       <c r="W26" t="s">
         <v>39</v>
       </c>
@@ -4690,7 +4770,7 @@
         <v>39</v>
       </c>
       <c r="Y26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z26" t="s">
         <v>43</v>
@@ -4699,11 +4779,11 @@
         <v>43</v>
       </c>
       <c r="AB26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC26" t="s">
         <v>209</v>
       </c>
-      <c r="AC26" t="s">
-        <v>39</v>
-      </c>
       <c r="AD26" t="s">
         <v>39</v>
       </c>
@@ -4719,8 +4799,11 @@
       <c r="AH26" t="s">
         <v>39</v>
       </c>
+      <c r="AI26" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>224</v>
       </c>
@@ -4737,44 +4820,44 @@
         <v>226</v>
       </c>
       <c r="F27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" t="s">
         <v>73</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>117</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>227</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>228</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>229</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>42</v>
       </c>
-      <c r="L27" t="s">
-        <v>48</v>
-      </c>
       <c r="M27" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" t="s">
         <v>151</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>230</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>64</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>231</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>66</v>
       </c>
-      <c r="R27" t="s">
-        <v>39</v>
-      </c>
       <c r="S27" t="s">
         <v>39</v>
       </c>
@@ -4782,32 +4865,32 @@
         <v>39</v>
       </c>
       <c r="U27" t="s">
+        <v>39</v>
+      </c>
+      <c r="V27" t="s">
         <v>49</v>
       </c>
-      <c r="V27" t="s">
-        <v>39</v>
-      </c>
       <c r="W27" t="s">
+        <v>39</v>
+      </c>
+      <c r="X27" t="s">
         <v>138</v>
       </c>
-      <c r="X27" t="s">
-        <v>39</v>
-      </c>
       <c r="Y27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AA27" t="s">
         <v>48</v>
       </c>
       <c r="AB27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC27" t="s">
         <v>52</v>
       </c>
-      <c r="AC27" t="s">
-        <v>39</v>
-      </c>
       <c r="AD27" t="s">
         <v>39</v>
       </c>
@@ -4818,13 +4901,16 @@
         <v>39</v>
       </c>
       <c r="AG27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH27" t="s">
         <v>232</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>233</v>
       </c>
@@ -4841,44 +4927,44 @@
         <v>235</v>
       </c>
       <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
         <v>73</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>30</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>101</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>236</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>237</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>42</v>
       </c>
-      <c r="L28" t="s">
-        <v>43</v>
-      </c>
       <c r="M28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" t="s">
         <v>94</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>63</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>45</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>238</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>66</v>
       </c>
-      <c r="R28" t="s">
-        <v>39</v>
-      </c>
       <c r="S28" t="s">
         <v>39</v>
       </c>
@@ -4886,11 +4972,11 @@
         <v>39</v>
       </c>
       <c r="U28" t="s">
+        <v>39</v>
+      </c>
+      <c r="V28" t="s">
         <v>175</v>
       </c>
-      <c r="V28" t="s">
-        <v>39</v>
-      </c>
       <c r="W28" t="s">
         <v>39</v>
       </c>
@@ -4898,7 +4984,7 @@
         <v>39</v>
       </c>
       <c r="Y28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z28" t="s">
         <v>43</v>
@@ -4907,7 +4993,7 @@
         <v>43</v>
       </c>
       <c r="AB28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AC28" t="s">
         <v>39</v>
@@ -4919,16 +5005,19 @@
         <v>39</v>
       </c>
       <c r="AF28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG28" t="s">
         <v>140</v>
       </c>
-      <c r="AG28" t="s">
-        <v>39</v>
-      </c>
       <c r="AH28" t="s">
         <v>39</v>
       </c>
+      <c r="AI28" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>239</v>
       </c>
@@ -4945,44 +5034,44 @@
         <v>241</v>
       </c>
       <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" t="s">
         <v>73</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2</v>
       </c>
-      <c r="H29" t="s">
-        <v>39</v>
-      </c>
       <c r="I29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" t="s">
         <v>242</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>243</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>42</v>
       </c>
-      <c r="L29" t="s">
-        <v>43</v>
-      </c>
       <c r="M29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" t="s">
         <v>130</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>63</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>64</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>244</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>66</v>
       </c>
-      <c r="R29" t="s">
-        <v>39</v>
-      </c>
       <c r="S29" t="s">
         <v>39</v>
       </c>
@@ -4990,11 +5079,11 @@
         <v>39</v>
       </c>
       <c r="U29" t="s">
+        <v>39</v>
+      </c>
+      <c r="V29" t="s">
         <v>49</v>
       </c>
-      <c r="V29" t="s">
-        <v>39</v>
-      </c>
       <c r="W29" t="s">
         <v>39</v>
       </c>
@@ -5002,20 +5091,20 @@
         <v>39</v>
       </c>
       <c r="Y29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z29" t="s">
         <v>43</v>
       </c>
       <c r="AA29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AB29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC29" t="s">
         <v>209</v>
       </c>
-      <c r="AC29" t="s">
-        <v>39</v>
-      </c>
       <c r="AD29" t="s">
         <v>39</v>
       </c>
@@ -5031,8 +5120,11 @@
       <c r="AH29" t="s">
         <v>39</v>
       </c>
+      <c r="AI29" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>245</v>
       </c>
@@ -5049,64 +5141,64 @@
         <v>241</v>
       </c>
       <c r="F30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" t="s">
         <v>73</v>
       </c>
-      <c r="G30" t="s">
-        <v>39</v>
-      </c>
       <c r="H30" t="s">
         <v>39</v>
       </c>
       <c r="I30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" t="s">
         <v>247</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>166</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>42</v>
       </c>
-      <c r="L30" t="s">
-        <v>48</v>
-      </c>
       <c r="M30" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" t="s">
         <v>248</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>63</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>64</v>
       </c>
-      <c r="P30" t="s">
-        <v>39</v>
-      </c>
       <c r="Q30" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" t="s">
         <v>66</v>
       </c>
-      <c r="R30" t="s">
-        <v>39</v>
-      </c>
       <c r="S30" t="s">
         <v>39</v>
       </c>
       <c r="T30" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U30" t="s">
+        <v>48</v>
+      </c>
+      <c r="V30" t="s">
         <v>249</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>250</v>
       </c>
-      <c r="W30" t="s">
-        <v>39</v>
-      </c>
       <c r="X30" t="s">
         <v>39</v>
       </c>
       <c r="Y30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z30" t="s">
         <v>43</v>
@@ -5115,7 +5207,7 @@
         <v>43</v>
       </c>
       <c r="AB30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AC30" t="s">
         <v>39</v>
@@ -5130,13 +5222,16 @@
         <v>39</v>
       </c>
       <c r="AG30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH30" t="s">
         <v>251</v>
       </c>
-      <c r="AH30" t="s">
+      <c r="AI30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>252</v>
       </c>
@@ -5153,44 +5248,44 @@
         <v>241</v>
       </c>
       <c r="F31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" t="s">
         <v>73</v>
       </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
       <c r="H31" t="s">
         <v>39</v>
       </c>
       <c r="I31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" t="s">
         <v>254</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>255</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>42</v>
       </c>
-      <c r="L31" t="s">
-        <v>48</v>
-      </c>
       <c r="M31" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" t="s">
         <v>62</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>63</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>64</v>
       </c>
-      <c r="P31" t="s">
-        <v>39</v>
-      </c>
       <c r="Q31" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" t="s">
         <v>66</v>
       </c>
-      <c r="R31" t="s">
-        <v>39</v>
-      </c>
       <c r="S31" t="s">
         <v>39</v>
       </c>
@@ -5198,19 +5293,19 @@
         <v>39</v>
       </c>
       <c r="U31" t="s">
+        <v>39</v>
+      </c>
+      <c r="V31" t="s">
         <v>49</v>
       </c>
-      <c r="V31" t="s">
-        <v>39</v>
-      </c>
       <c r="W31" t="s">
-        <v>256</v>
+        <v>39</v>
       </c>
       <c r="X31" t="s">
         <v>256</v>
       </c>
       <c r="Y31" t="s">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="Z31" t="s">
         <v>43</v>
@@ -5219,11 +5314,11 @@
         <v>43</v>
       </c>
       <c r="AB31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC31" t="s">
         <v>52</v>
       </c>
-      <c r="AC31" t="s">
-        <v>39</v>
-      </c>
       <c r="AD31" t="s">
         <v>39</v>
       </c>
@@ -5231,16 +5326,19 @@
         <v>39</v>
       </c>
       <c r="AF31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG31" t="s">
         <v>257</v>
       </c>
-      <c r="AG31" s="13" t="s">
+      <c r="AH31" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="AH31" t="s">
+      <c r="AI31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>258</v>
       </c>
@@ -5257,77 +5355,77 @@
         <v>241</v>
       </c>
       <c r="F32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" t="s">
         <v>73</v>
       </c>
-      <c r="G32" t="s">
-        <v>39</v>
-      </c>
       <c r="H32" t="s">
         <v>39</v>
       </c>
       <c r="I32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" t="s">
         <v>260</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>136</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>42</v>
       </c>
-      <c r="L32" t="s">
-        <v>48</v>
-      </c>
       <c r="M32" t="s">
+        <v>48</v>
+      </c>
+      <c r="N32" t="s">
         <v>62</v>
       </c>
-      <c r="N32" t="s">
-        <v>39</v>
-      </c>
       <c r="O32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" t="s">
         <v>45</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>261</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>66</v>
       </c>
-      <c r="R32" t="s">
-        <v>39</v>
-      </c>
       <c r="S32" t="s">
         <v>39</v>
       </c>
       <c r="T32" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U32" t="s">
+        <v>48</v>
+      </c>
+      <c r="V32" t="s">
         <v>67</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>262</v>
       </c>
-      <c r="W32" t="s">
-        <v>39</v>
-      </c>
       <c r="X32" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y32" t="s">
         <v>68</v>
       </c>
-      <c r="Y32" t="s">
-        <v>43</v>
-      </c>
       <c r="Z32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AA32" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AB32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC32" t="s">
         <v>416</v>
       </c>
-      <c r="AC32" t="s">
-        <v>39</v>
-      </c>
       <c r="AD32" t="s">
         <v>39</v>
       </c>
@@ -5343,8 +5441,11 @@
       <c r="AH32" t="s">
         <v>39</v>
       </c>
+      <c r="AI32" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>263</v>
       </c>
@@ -5361,64 +5462,64 @@
         <v>241</v>
       </c>
       <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s">
         <v>73</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>33</v>
       </c>
-      <c r="H33" t="s">
-        <v>39</v>
-      </c>
       <c r="I33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" t="s">
         <v>265</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>266</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>42</v>
       </c>
-      <c r="L33" t="s">
-        <v>48</v>
-      </c>
       <c r="M33" t="s">
+        <v>48</v>
+      </c>
+      <c r="N33" t="s">
         <v>85</v>
       </c>
-      <c r="N33" t="s">
-        <v>39</v>
-      </c>
       <c r="O33" t="s">
+        <v>39</v>
+      </c>
+      <c r="P33" t="s">
         <v>45</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>267</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>66</v>
       </c>
-      <c r="R33" t="s">
-        <v>39</v>
-      </c>
       <c r="S33" t="s">
         <v>39</v>
       </c>
       <c r="T33" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U33" t="s">
+        <v>48</v>
+      </c>
+      <c r="V33" t="s">
         <v>49</v>
       </c>
-      <c r="V33" t="s">
-        <v>39</v>
-      </c>
       <c r="W33" t="s">
+        <v>39</v>
+      </c>
+      <c r="X33" t="s">
         <v>138</v>
       </c>
-      <c r="X33" t="s">
-        <v>39</v>
-      </c>
       <c r="Y33" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z33" t="s">
         <v>43</v>
@@ -5427,11 +5528,11 @@
         <v>43</v>
       </c>
       <c r="AB33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC33" t="s">
         <v>416</v>
       </c>
-      <c r="AC33" t="s">
-        <v>39</v>
-      </c>
       <c r="AD33" t="s">
         <v>39</v>
       </c>
@@ -5442,13 +5543,16 @@
         <v>39</v>
       </c>
       <c r="AG33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH33" t="s">
         <v>112</v>
       </c>
-      <c r="AH33" t="s">
+      <c r="AI33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>268</v>
       </c>
@@ -5465,64 +5569,64 @@
         <v>241</v>
       </c>
       <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" t="s">
         <v>73</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>19</v>
       </c>
-      <c r="H34" t="s">
-        <v>39</v>
-      </c>
       <c r="I34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s">
         <v>270</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>271</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>42</v>
       </c>
-      <c r="L34" t="s">
-        <v>48</v>
-      </c>
       <c r="M34" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" t="s">
         <v>272</v>
       </c>
-      <c r="N34" t="s">
-        <v>39</v>
-      </c>
       <c r="O34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" t="s">
         <v>64</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>273</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>66</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>96</v>
       </c>
-      <c r="S34" t="s">
-        <v>39</v>
-      </c>
       <c r="T34" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U34" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" t="s">
         <v>49</v>
       </c>
-      <c r="V34" t="s">
-        <v>39</v>
-      </c>
       <c r="W34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X34" t="s">
         <v>138</v>
       </c>
-      <c r="X34" t="s">
-        <v>39</v>
-      </c>
       <c r="Y34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z34" t="s">
         <v>43</v>
@@ -5531,11 +5635,11 @@
         <v>43</v>
       </c>
       <c r="AB34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC34" t="s">
         <v>168</v>
       </c>
-      <c r="AC34" t="s">
-        <v>39</v>
-      </c>
       <c r="AD34" t="s">
         <v>39</v>
       </c>
@@ -5551,8 +5655,11 @@
       <c r="AH34" t="s">
         <v>39</v>
       </c>
+      <c r="AI34" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>274</v>
       </c>
@@ -5569,65 +5676,65 @@
         <v>276</v>
       </c>
       <c r="F35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" t="s">
         <v>73</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>118</v>
       </c>
-      <c r="H35" t="s">
-        <v>39</v>
-      </c>
       <c r="I35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" t="s">
         <v>277</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>278</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>42</v>
       </c>
-      <c r="L35" t="s">
-        <v>48</v>
-      </c>
       <c r="M35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N35" t="s">
         <v>85</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>63</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>64</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>279</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>66</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>195</v>
       </c>
-      <c r="S35" t="s">
-        <v>39</v>
-      </c>
       <c r="T35" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V35" t="s">
         <v>49</v>
       </c>
-      <c r="V35" t="s">
-        <v>39</v>
-      </c>
       <c r="W35" t="s">
+        <v>39</v>
+      </c>
+      <c r="X35" t="s">
         <v>138</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>186</v>
       </c>
-      <c r="Y35" t="s">
-        <v>43</v>
-      </c>
       <c r="Z35" t="s">
         <v>43</v>
       </c>
@@ -5635,11 +5742,11 @@
         <v>43</v>
       </c>
       <c r="AB35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC35" t="s">
         <v>52</v>
       </c>
-      <c r="AC35" t="s">
-        <v>39</v>
-      </c>
       <c r="AD35" t="s">
         <v>39</v>
       </c>
@@ -5650,13 +5757,16 @@
         <v>39</v>
       </c>
       <c r="AG35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH35" t="s">
         <v>112</v>
       </c>
-      <c r="AH35" t="s">
+      <c r="AI35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>280</v>
       </c>
@@ -5673,44 +5783,44 @@
         <v>282</v>
       </c>
       <c r="F36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" t="s">
         <v>59</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>209</v>
       </c>
-      <c r="H36" t="s">
-        <v>39</v>
-      </c>
       <c r="I36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" t="s">
         <v>283</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>284</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>42</v>
       </c>
-      <c r="L36" t="s">
-        <v>43</v>
-      </c>
       <c r="M36" t="s">
+        <v>43</v>
+      </c>
+      <c r="N36" t="s">
         <v>285</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>63</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>64</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>286</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>47</v>
       </c>
-      <c r="R36" t="s">
-        <v>39</v>
-      </c>
       <c r="S36" t="s">
         <v>39</v>
       </c>
@@ -5718,11 +5828,11 @@
         <v>39</v>
       </c>
       <c r="U36" t="s">
+        <v>39</v>
+      </c>
+      <c r="V36" t="s">
         <v>67</v>
       </c>
-      <c r="V36" t="s">
-        <v>39</v>
-      </c>
       <c r="W36" t="s">
         <v>39</v>
       </c>
@@ -5730,7 +5840,7 @@
         <v>39</v>
       </c>
       <c r="Y36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z36" t="s">
         <v>43</v>
@@ -5739,11 +5849,11 @@
         <v>43</v>
       </c>
       <c r="AB36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC36" t="s">
         <v>88</v>
       </c>
-      <c r="AC36" t="s">
-        <v>39</v>
-      </c>
       <c r="AD36" t="s">
         <v>39</v>
       </c>
@@ -5759,8 +5869,11 @@
       <c r="AH36" t="s">
         <v>39</v>
       </c>
+      <c r="AI36" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>287</v>
       </c>
@@ -5777,44 +5890,44 @@
         <v>289</v>
       </c>
       <c r="F37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" t="s">
         <v>59</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>5447</v>
       </c>
-      <c r="H37" t="s">
-        <v>39</v>
-      </c>
       <c r="I37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" t="s">
         <v>290</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>291</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>42</v>
       </c>
-      <c r="L37" t="s">
-        <v>48</v>
-      </c>
       <c r="M37" t="s">
+        <v>48</v>
+      </c>
+      <c r="N37" t="s">
         <v>59</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>79</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>45</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>292</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>293</v>
       </c>
-      <c r="R37" t="s">
-        <v>39</v>
-      </c>
       <c r="S37" t="s">
         <v>39</v>
       </c>
@@ -5822,11 +5935,11 @@
         <v>39</v>
       </c>
       <c r="U37" t="s">
+        <v>39</v>
+      </c>
+      <c r="V37" t="s">
         <v>294</v>
       </c>
-      <c r="V37" t="s">
-        <v>39</v>
-      </c>
       <c r="W37" t="s">
         <v>39</v>
       </c>
@@ -5834,7 +5947,7 @@
         <v>39</v>
       </c>
       <c r="Y37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z37" t="s">
         <v>43</v>
@@ -5843,11 +5956,11 @@
         <v>43</v>
       </c>
       <c r="AB37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC37" t="s">
         <v>416</v>
       </c>
-      <c r="AC37" t="s">
-        <v>39</v>
-      </c>
       <c r="AD37" t="s">
         <v>39</v>
       </c>
@@ -5863,8 +5976,11 @@
       <c r="AH37" t="s">
         <v>39</v>
       </c>
+      <c r="AI37" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>295</v>
       </c>
@@ -5881,44 +5997,44 @@
         <v>297</v>
       </c>
       <c r="F38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" t="s">
         <v>59</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>7758</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>298</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>299</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>300</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>42</v>
       </c>
-      <c r="L38" t="s">
-        <v>48</v>
-      </c>
       <c r="M38" t="s">
+        <v>48</v>
+      </c>
+      <c r="N38" t="s">
         <v>301</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>79</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>45</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>302</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>47</v>
       </c>
-      <c r="R38" t="s">
-        <v>39</v>
-      </c>
       <c r="S38" t="s">
         <v>39</v>
       </c>
@@ -5926,11 +6042,11 @@
         <v>39</v>
       </c>
       <c r="U38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V38" t="s">
         <v>303</v>
       </c>
-      <c r="V38" t="s">
-        <v>39</v>
-      </c>
       <c r="W38" t="s">
         <v>39</v>
       </c>
@@ -5938,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="Y38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z38" t="s">
         <v>43</v>
@@ -5947,11 +6063,11 @@
         <v>43</v>
       </c>
       <c r="AB38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC38" t="s">
         <v>416</v>
       </c>
-      <c r="AC38" t="s">
-        <v>39</v>
-      </c>
       <c r="AD38" t="s">
         <v>39</v>
       </c>
@@ -5967,8 +6083,11 @@
       <c r="AH38" t="s">
         <v>39</v>
       </c>
+      <c r="AI38" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>304</v>
       </c>
@@ -5985,44 +6104,44 @@
         <v>190</v>
       </c>
       <c r="F39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" t="s">
         <v>59</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>63</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>306</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>307</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>308</v>
       </c>
-      <c r="K39" t="s">
-        <v>39</v>
-      </c>
       <c r="L39" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M39" t="s">
+        <v>48</v>
+      </c>
+      <c r="N39" t="s">
         <v>62</v>
       </c>
-      <c r="N39" t="s">
-        <v>39</v>
-      </c>
       <c r="O39" t="s">
+        <v>39</v>
+      </c>
+      <c r="P39" t="s">
         <v>45</v>
       </c>
-      <c r="P39" t="s">
-        <v>39</v>
-      </c>
       <c r="Q39" t="s">
+        <v>39</v>
+      </c>
+      <c r="R39" t="s">
         <v>66</v>
       </c>
-      <c r="R39" t="s">
-        <v>39</v>
-      </c>
       <c r="S39" t="s">
         <v>39</v>
       </c>
@@ -6042,7 +6161,7 @@
         <v>39</v>
       </c>
       <c r="Y39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z39" t="s">
         <v>43</v>
@@ -6051,11 +6170,11 @@
         <v>43</v>
       </c>
       <c r="AB39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC39" t="s">
         <v>416</v>
       </c>
-      <c r="AC39" t="s">
-        <v>39</v>
-      </c>
       <c r="AD39" t="s">
         <v>39</v>
       </c>
@@ -6071,8 +6190,11 @@
       <c r="AH39" t="s">
         <v>39</v>
       </c>
+      <c r="AI39" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>309</v>
       </c>
@@ -6089,44 +6211,44 @@
         <v>241</v>
       </c>
       <c r="F40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" t="s">
         <v>73</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>324</v>
       </c>
-      <c r="H40" t="s">
-        <v>39</v>
-      </c>
       <c r="I40" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" t="s">
         <v>311</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>312</v>
       </c>
-      <c r="K40" t="s">
-        <v>39</v>
-      </c>
       <c r="L40" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M40" t="s">
+        <v>48</v>
+      </c>
+      <c r="N40" t="s">
         <v>130</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>63</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>64</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>313</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>66</v>
       </c>
-      <c r="R40" t="s">
-        <v>39</v>
-      </c>
       <c r="S40" t="s">
         <v>39</v>
       </c>
@@ -6146,7 +6268,7 @@
         <v>39</v>
       </c>
       <c r="Y40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z40" t="s">
         <v>43</v>
@@ -6155,11 +6277,11 @@
         <v>43</v>
       </c>
       <c r="AB40" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC40" t="s">
         <v>314</v>
       </c>
-      <c r="AC40" t="s">
-        <v>39</v>
-      </c>
       <c r="AD40" t="s">
         <v>39</v>
       </c>
@@ -6175,8 +6297,11 @@
       <c r="AH40" t="s">
         <v>39</v>
       </c>
+      <c r="AI40" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>315</v>
       </c>
@@ -6193,52 +6318,52 @@
         <v>241</v>
       </c>
       <c r="F41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" t="s">
         <v>73</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>308388</v>
       </c>
-      <c r="H41" t="s">
-        <v>39</v>
-      </c>
       <c r="I41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" t="s">
         <v>317</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>318</v>
       </c>
-      <c r="K41" t="s">
-        <v>39</v>
-      </c>
       <c r="L41" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M41" t="s">
+        <v>48</v>
+      </c>
+      <c r="N41" t="s">
         <v>130</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>63</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>64</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>319</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>66</v>
       </c>
-      <c r="R41" t="s">
-        <v>39</v>
-      </c>
       <c r="S41" t="s">
         <v>39</v>
       </c>
       <c r="T41" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U41" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="V41" t="s">
         <v>39</v>
@@ -6250,7 +6375,7 @@
         <v>39</v>
       </c>
       <c r="Y41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z41" t="s">
         <v>43</v>
@@ -6259,11 +6384,11 @@
         <v>43</v>
       </c>
       <c r="AB41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC41" t="s">
         <v>416</v>
       </c>
-      <c r="AC41" t="s">
-        <v>39</v>
-      </c>
       <c r="AD41" t="s">
         <v>39</v>
       </c>
@@ -6279,8 +6404,11 @@
       <c r="AH41" t="s">
         <v>39</v>
       </c>
+      <c r="AI41" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>320</v>
       </c>
@@ -6297,44 +6425,44 @@
         <v>323</v>
       </c>
       <c r="F42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" t="s">
         <v>59</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>60601</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>324</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>325</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>326</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>77</v>
       </c>
-      <c r="L42" t="s">
-        <v>48</v>
-      </c>
       <c r="M42" t="s">
+        <v>48</v>
+      </c>
+      <c r="N42" t="s">
         <v>59</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>79</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>45</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>327</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>293</v>
       </c>
-      <c r="R42" t="s">
-        <v>39</v>
-      </c>
       <c r="S42" t="s">
         <v>39</v>
       </c>
@@ -6342,32 +6470,32 @@
         <v>39</v>
       </c>
       <c r="U42" t="s">
+        <v>39</v>
+      </c>
+      <c r="V42" t="s">
         <v>67</v>
       </c>
-      <c r="V42" t="s">
-        <v>39</v>
-      </c>
       <c r="W42" t="s">
         <v>39</v>
       </c>
       <c r="X42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y42" t="s">
         <v>328</v>
       </c>
-      <c r="Y42" t="s">
-        <v>48</v>
-      </c>
       <c r="Z42" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AA42" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AB42" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC42" t="s">
         <v>416</v>
       </c>
-      <c r="AC42" t="s">
-        <v>39</v>
-      </c>
       <c r="AD42" t="s">
         <v>39</v>
       </c>
@@ -6383,8 +6511,11 @@
       <c r="AH42" t="s">
         <v>39</v>
       </c>
+      <c r="AI42" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -6401,52 +6532,52 @@
         <v>241</v>
       </c>
       <c r="F43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" t="s">
         <v>73</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>8596</v>
       </c>
-      <c r="H43" t="s">
-        <v>39</v>
-      </c>
       <c r="I43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" t="s">
         <v>331</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>332</v>
       </c>
-      <c r="K43" t="s">
-        <v>39</v>
-      </c>
       <c r="L43" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M43" t="s">
+        <v>48</v>
+      </c>
+      <c r="N43" t="s">
         <v>130</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>63</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>64</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>333</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>66</v>
       </c>
-      <c r="R43" t="s">
-        <v>39</v>
-      </c>
       <c r="S43" t="s">
         <v>39</v>
       </c>
       <c r="T43" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U43" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="V43" t="s">
         <v>39</v>
@@ -6458,7 +6589,7 @@
         <v>39</v>
       </c>
       <c r="Y43" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z43" t="s">
         <v>43</v>
@@ -6467,11 +6598,11 @@
         <v>43</v>
       </c>
       <c r="AB43" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC43" t="s">
         <v>314</v>
       </c>
-      <c r="AC43" t="s">
-        <v>39</v>
-      </c>
       <c r="AD43" t="s">
         <v>39</v>
       </c>
@@ -6479,16 +6610,19 @@
         <v>39</v>
       </c>
       <c r="AF43" t="s">
-        <v>334</v>
+        <v>39</v>
       </c>
       <c r="AG43" t="s">
         <v>334</v>
       </c>
       <c r="AH43" t="s">
+        <v>334</v>
+      </c>
+      <c r="AI43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>335</v>
       </c>
@@ -6505,44 +6639,44 @@
         <v>241</v>
       </c>
       <c r="F44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" t="s">
         <v>73</v>
       </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
       <c r="H44" t="s">
         <v>39</v>
       </c>
       <c r="I44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" t="s">
         <v>337</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>338</v>
       </c>
-      <c r="K44" t="s">
-        <v>39</v>
-      </c>
       <c r="L44" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M44" t="s">
+        <v>48</v>
+      </c>
+      <c r="N44" t="s">
         <v>130</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>63</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>64</v>
       </c>
-      <c r="P44" t="s">
-        <v>39</v>
-      </c>
       <c r="Q44" t="s">
+        <v>39</v>
+      </c>
+      <c r="R44" t="s">
         <v>66</v>
       </c>
-      <c r="R44" t="s">
-        <v>39</v>
-      </c>
       <c r="S44" t="s">
         <v>39</v>
       </c>
@@ -6562,7 +6696,7 @@
         <v>39</v>
       </c>
       <c r="Y44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z44" t="s">
         <v>43</v>
@@ -6571,11 +6705,11 @@
         <v>43</v>
       </c>
       <c r="AB44" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC44" t="s">
         <v>88</v>
       </c>
-      <c r="AC44" t="s">
-        <v>39</v>
-      </c>
       <c r="AD44" t="s">
         <v>39</v>
       </c>
@@ -6591,8 +6725,11 @@
       <c r="AH44" t="s">
         <v>39</v>
       </c>
+      <c r="AI44" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>339</v>
       </c>
@@ -6609,44 +6746,44 @@
         <v>241</v>
       </c>
       <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" t="s">
         <v>73</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>2500</v>
       </c>
-      <c r="H45" t="s">
-        <v>39</v>
-      </c>
       <c r="I45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" t="s">
         <v>341</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>342</v>
       </c>
-      <c r="K45" t="s">
-        <v>39</v>
-      </c>
       <c r="L45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M45" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" t="s">
         <v>130</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>63</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>64</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>343</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>66</v>
       </c>
-      <c r="R45" t="s">
-        <v>39</v>
-      </c>
       <c r="S45" t="s">
         <v>39</v>
       </c>
@@ -6666,7 +6803,7 @@
         <v>39</v>
       </c>
       <c r="Y45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z45" t="s">
         <v>43</v>
@@ -6675,11 +6812,11 @@
         <v>43</v>
       </c>
       <c r="AB45" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC45" t="s">
         <v>314</v>
       </c>
-      <c r="AC45" t="s">
-        <v>39</v>
-      </c>
       <c r="AD45" t="s">
         <v>39</v>
       </c>
@@ -6695,8 +6832,11 @@
       <c r="AH45" t="s">
         <v>39</v>
       </c>
+      <c r="AI45" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>344</v>
       </c>
@@ -6713,44 +6853,44 @@
         <v>241</v>
       </c>
       <c r="F46" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" t="s">
         <v>73</v>
       </c>
-      <c r="G46" t="s">
-        <v>39</v>
-      </c>
       <c r="H46" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" t="s">
         <v>346</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>347</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>348</v>
       </c>
-      <c r="K46" t="s">
-        <v>39</v>
-      </c>
       <c r="L46" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M46" t="s">
+        <v>48</v>
+      </c>
+      <c r="N46" t="s">
         <v>285</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>63</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>64</v>
       </c>
-      <c r="P46" t="s">
-        <v>39</v>
-      </c>
       <c r="Q46" t="s">
+        <v>39</v>
+      </c>
+      <c r="R46" t="s">
         <v>66</v>
       </c>
-      <c r="R46" t="s">
-        <v>39</v>
-      </c>
       <c r="S46" t="s">
         <v>39</v>
       </c>
@@ -6758,32 +6898,32 @@
         <v>39</v>
       </c>
       <c r="U46" t="s">
+        <v>39</v>
+      </c>
+      <c r="V46" t="s">
         <v>49</v>
       </c>
-      <c r="V46" t="s">
-        <v>39</v>
-      </c>
       <c r="W46" t="s">
+        <v>39</v>
+      </c>
+      <c r="X46" t="s">
         <v>349</v>
       </c>
-      <c r="X46" t="s">
-        <v>39</v>
-      </c>
       <c r="Y46" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z46" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AA46" t="s">
         <v>48</v>
       </c>
       <c r="AB46" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC46" t="s">
         <v>314</v>
       </c>
-      <c r="AC46" t="s">
-        <v>39</v>
-      </c>
       <c r="AD46" t="s">
         <v>39</v>
       </c>
@@ -6797,10 +6937,13 @@
         <v>39</v>
       </c>
       <c r="AH46" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>350</v>
       </c>
@@ -6817,44 +6960,44 @@
         <v>241</v>
       </c>
       <c r="F47" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" t="s">
         <v>73</v>
       </c>
-      <c r="G47" t="s">
-        <v>39</v>
-      </c>
       <c r="H47" t="s">
         <v>39</v>
       </c>
       <c r="I47" t="s">
+        <v>39</v>
+      </c>
+      <c r="J47" t="s">
         <v>352</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>413</v>
       </c>
-      <c r="K47" t="s">
-        <v>39</v>
-      </c>
       <c r="L47" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M47" t="s">
+        <v>48</v>
+      </c>
+      <c r="N47" t="s">
         <v>285</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>63</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>64</v>
       </c>
-      <c r="P47" t="s">
-        <v>39</v>
-      </c>
       <c r="Q47" t="s">
+        <v>39</v>
+      </c>
+      <c r="R47" t="s">
         <v>66</v>
       </c>
-      <c r="R47" t="s">
-        <v>39</v>
-      </c>
       <c r="S47" t="s">
         <v>39</v>
       </c>
@@ -6862,19 +7005,19 @@
         <v>39</v>
       </c>
       <c r="U47" t="s">
+        <v>39</v>
+      </c>
+      <c r="V47" t="s">
         <v>49</v>
       </c>
-      <c r="V47" t="s">
-        <v>39</v>
-      </c>
       <c r="W47" t="s">
+        <v>39</v>
+      </c>
+      <c r="X47" t="s">
         <v>353</v>
       </c>
-      <c r="X47" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>48</v>
+      <c r="Y47" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="Z47" t="s">
         <v>48</v>
@@ -6883,11 +7026,11 @@
         <v>48</v>
       </c>
       <c r="AB47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC47" t="s">
         <v>209</v>
       </c>
-      <c r="AC47" t="s">
-        <v>39</v>
-      </c>
       <c r="AD47" t="s">
         <v>39</v>
       </c>
@@ -6898,13 +7041,16 @@
         <v>39</v>
       </c>
       <c r="AG47" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH47" t="s">
         <v>354</v>
       </c>
-      <c r="AH47" t="s">
+      <c r="AI47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>355</v>
       </c>
@@ -6921,44 +7067,44 @@
         <v>241</v>
       </c>
       <c r="F48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" t="s">
         <v>73</v>
       </c>
-      <c r="G48" t="s">
-        <v>39</v>
-      </c>
       <c r="H48" t="s">
         <v>39</v>
       </c>
       <c r="I48" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48" t="s">
         <v>357</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>358</v>
       </c>
-      <c r="K48" t="s">
-        <v>39</v>
-      </c>
       <c r="L48" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M48" t="s">
+        <v>48</v>
+      </c>
+      <c r="N48" t="s">
         <v>285</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>63</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>64</v>
       </c>
-      <c r="P48" t="s">
-        <v>39</v>
-      </c>
       <c r="Q48" t="s">
+        <v>39</v>
+      </c>
+      <c r="R48" t="s">
         <v>66</v>
       </c>
-      <c r="R48" t="s">
-        <v>39</v>
-      </c>
       <c r="S48" t="s">
         <v>39</v>
       </c>
@@ -6966,11 +7112,11 @@
         <v>39</v>
       </c>
       <c r="U48" t="s">
+        <v>39</v>
+      </c>
+      <c r="V48" t="s">
         <v>359</v>
       </c>
-      <c r="V48" t="s">
-        <v>39</v>
-      </c>
       <c r="W48" t="s">
         <v>39</v>
       </c>
@@ -6978,7 +7124,7 @@
         <v>39</v>
       </c>
       <c r="Y48" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z48" t="s">
         <v>43</v>
@@ -6987,11 +7133,11 @@
         <v>43</v>
       </c>
       <c r="AB48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC48" t="s">
         <v>416</v>
       </c>
-      <c r="AC48" t="s">
-        <v>39</v>
-      </c>
       <c r="AD48" t="s">
         <v>39</v>
       </c>
@@ -7007,8 +7153,11 @@
       <c r="AH48" t="s">
         <v>39</v>
       </c>
+      <c r="AI48" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>360</v>
       </c>
@@ -7025,44 +7174,44 @@
         <v>241</v>
       </c>
       <c r="F49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" t="s">
         <v>73</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>31000</v>
       </c>
-      <c r="H49" t="s">
-        <v>39</v>
-      </c>
       <c r="I49" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" t="s">
         <v>362</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>363</v>
       </c>
-      <c r="K49" t="s">
-        <v>39</v>
-      </c>
       <c r="L49" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M49" t="s">
+        <v>48</v>
+      </c>
+      <c r="N49" t="s">
         <v>364</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>79</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>64</v>
       </c>
-      <c r="P49" t="s">
-        <v>39</v>
-      </c>
       <c r="Q49" t="s">
+        <v>39</v>
+      </c>
+      <c r="R49" t="s">
         <v>66</v>
       </c>
-      <c r="R49" t="s">
-        <v>39</v>
-      </c>
       <c r="S49" t="s">
         <v>39</v>
       </c>
@@ -7070,19 +7219,19 @@
         <v>39</v>
       </c>
       <c r="U49" t="s">
+        <v>39</v>
+      </c>
+      <c r="V49" t="s">
         <v>49</v>
       </c>
-      <c r="V49" t="s">
-        <v>39</v>
-      </c>
       <c r="W49" t="s">
+        <v>39</v>
+      </c>
+      <c r="X49" t="s">
         <v>365</v>
       </c>
-      <c r="X49" t="s">
-        <v>39</v>
-      </c>
       <c r="Y49" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z49" t="s">
         <v>43</v>
@@ -7091,11 +7240,11 @@
         <v>43</v>
       </c>
       <c r="AB49" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC49" t="s">
         <v>314</v>
       </c>
-      <c r="AC49" t="s">
-        <v>39</v>
-      </c>
       <c r="AD49" t="s">
         <v>39</v>
       </c>
@@ -7111,8 +7260,11 @@
       <c r="AH49" t="s">
         <v>39</v>
       </c>
+      <c r="AI49" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>366</v>
       </c>
@@ -7129,44 +7281,44 @@
         <v>58</v>
       </c>
       <c r="F50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" t="s">
         <v>59</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>256</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>369</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>370</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>371</v>
       </c>
-      <c r="K50" t="s">
-        <v>39</v>
-      </c>
       <c r="L50" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M50" t="s">
+        <v>48</v>
+      </c>
+      <c r="N50" t="s">
         <v>59</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>79</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>45</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>372</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>47</v>
       </c>
-      <c r="R50" t="s">
-        <v>39</v>
-      </c>
       <c r="S50" t="s">
         <v>39</v>
       </c>
@@ -7174,11 +7326,11 @@
         <v>39</v>
       </c>
       <c r="U50" t="s">
+        <v>39</v>
+      </c>
+      <c r="V50" t="s">
         <v>373</v>
       </c>
-      <c r="V50" t="s">
-        <v>39</v>
-      </c>
       <c r="W50" t="s">
         <v>39</v>
       </c>
@@ -7186,7 +7338,7 @@
         <v>39</v>
       </c>
       <c r="Y50" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z50" t="s">
         <v>43</v>
@@ -7195,11 +7347,11 @@
         <v>43</v>
       </c>
       <c r="AB50" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC50" t="s">
         <v>314</v>
       </c>
-      <c r="AC50" t="s">
-        <v>39</v>
-      </c>
       <c r="AD50" t="s">
         <v>39</v>
       </c>
@@ -7215,8 +7367,11 @@
       <c r="AH50" t="s">
         <v>39</v>
       </c>
+      <c r="AI50" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>374</v>
       </c>
@@ -7233,44 +7388,44 @@
         <v>377</v>
       </c>
       <c r="F51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" t="s">
         <v>59</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>7290</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>378</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>379</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>415</v>
       </c>
-      <c r="K51" t="s">
-        <v>39</v>
-      </c>
       <c r="L51" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M51" t="s">
+        <v>48</v>
+      </c>
+      <c r="N51" t="s">
         <v>59</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>79</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>45</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>380</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>47</v>
       </c>
-      <c r="R51" t="s">
-        <v>39</v>
-      </c>
       <c r="S51" t="s">
         <v>39</v>
       </c>
@@ -7290,7 +7445,7 @@
         <v>39</v>
       </c>
       <c r="Y51" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z51" t="s">
         <v>43</v>
@@ -7299,11 +7454,11 @@
         <v>43</v>
       </c>
       <c r="AB51" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC51" t="s">
         <v>416</v>
       </c>
-      <c r="AC51" t="s">
-        <v>39</v>
-      </c>
       <c r="AD51" t="s">
         <v>39</v>
       </c>
@@ -7319,8 +7474,11 @@
       <c r="AH51" t="s">
         <v>39</v>
       </c>
+      <c r="AI51" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>381</v>
       </c>
@@ -7337,44 +7495,44 @@
         <v>143</v>
       </c>
       <c r="F52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" t="s">
         <v>73</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>54</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>383</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>384</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>385</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>42</v>
       </c>
-      <c r="L52" t="s">
-        <v>48</v>
-      </c>
       <c r="M52" t="s">
+        <v>48</v>
+      </c>
+      <c r="N52" t="s">
         <v>217</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>63</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>64</v>
       </c>
-      <c r="P52" t="s">
-        <v>39</v>
-      </c>
       <c r="Q52" t="s">
+        <v>39</v>
+      </c>
+      <c r="R52" t="s">
         <v>66</v>
       </c>
-      <c r="R52" t="s">
-        <v>39</v>
-      </c>
       <c r="S52" t="s">
         <v>39</v>
       </c>
@@ -7382,11 +7540,11 @@
         <v>39</v>
       </c>
       <c r="U52" t="s">
+        <v>39</v>
+      </c>
+      <c r="V52" t="s">
         <v>386</v>
       </c>
-      <c r="V52" t="s">
-        <v>39</v>
-      </c>
       <c r="W52" t="s">
         <v>39</v>
       </c>
@@ -7394,7 +7552,7 @@
         <v>39</v>
       </c>
       <c r="Y52" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z52" t="s">
         <v>43</v>
@@ -7403,7 +7561,7 @@
         <v>43</v>
       </c>
       <c r="AB52" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AC52" t="s">
         <v>39</v>
@@ -7423,8 +7581,11 @@
       <c r="AH52" t="s">
         <v>39</v>
       </c>
+      <c r="AI52" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>387</v>
       </c>
@@ -7441,44 +7602,44 @@
         <v>226</v>
       </c>
       <c r="F53" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" t="s">
         <v>73</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>128</v>
       </c>
-      <c r="H53" t="s">
-        <v>39</v>
-      </c>
       <c r="I53" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" t="s">
         <v>389</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>390</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>42</v>
       </c>
-      <c r="L53" t="s">
-        <v>48</v>
-      </c>
       <c r="M53" t="s">
+        <v>48</v>
+      </c>
+      <c r="N53" t="s">
         <v>193</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>63</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>64</v>
       </c>
-      <c r="P53" t="s">
-        <v>39</v>
-      </c>
       <c r="Q53" t="s">
+        <v>39</v>
+      </c>
+      <c r="R53" t="s">
         <v>66</v>
       </c>
-      <c r="R53" t="s">
-        <v>39</v>
-      </c>
       <c r="S53" t="s">
         <v>39</v>
       </c>
@@ -7486,32 +7647,32 @@
         <v>39</v>
       </c>
       <c r="U53" t="s">
+        <v>39</v>
+      </c>
+      <c r="V53" t="s">
         <v>49</v>
       </c>
-      <c r="V53" t="s">
-        <v>39</v>
-      </c>
       <c r="W53" t="s">
+        <v>39</v>
+      </c>
+      <c r="X53" t="s">
         <v>138</v>
       </c>
-      <c r="X53" t="s">
-        <v>39</v>
-      </c>
       <c r="Y53" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Z53" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AA53" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AB53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC53" t="s">
         <v>314</v>
       </c>
-      <c r="AC53" t="s">
-        <v>39</v>
-      </c>
       <c r="AD53" t="s">
         <v>39</v>
       </c>
@@ -7527,8 +7688,11 @@
       <c r="AH53" t="s">
         <v>39</v>
       </c>
+      <c r="AI53" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>391</v>
       </c>
@@ -7545,44 +7709,44 @@
         <v>226</v>
       </c>
       <c r="F54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" t="s">
         <v>73</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>3596</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>393</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>394</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>395</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>42</v>
       </c>
-      <c r="L54" t="s">
-        <v>48</v>
-      </c>
       <c r="M54" t="s">
+        <v>48</v>
+      </c>
+      <c r="N54" t="s">
         <v>62</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>230</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>64</v>
       </c>
-      <c r="P54" t="s">
-        <v>39</v>
-      </c>
       <c r="Q54" t="s">
+        <v>39</v>
+      </c>
+      <c r="R54" t="s">
         <v>66</v>
       </c>
-      <c r="R54" t="s">
-        <v>39</v>
-      </c>
       <c r="S54" t="s">
         <v>39</v>
       </c>
@@ -7590,11 +7754,11 @@
         <v>39</v>
       </c>
       <c r="U54" t="s">
+        <v>39</v>
+      </c>
+      <c r="V54" t="s">
         <v>396</v>
       </c>
-      <c r="V54" t="s">
-        <v>39</v>
-      </c>
       <c r="W54" t="s">
         <v>39</v>
       </c>
@@ -7602,20 +7766,20 @@
         <v>39</v>
       </c>
       <c r="Y54" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Z54" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AA54" t="s">
         <v>43</v>
       </c>
       <c r="AB54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC54" t="s">
         <v>314</v>
       </c>
-      <c r="AC54" t="s">
-        <v>39</v>
-      </c>
       <c r="AD54" t="s">
         <v>39</v>
       </c>
@@ -7631,8 +7795,11 @@
       <c r="AH54" t="s">
         <v>39</v>
       </c>
+      <c r="AI54" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>397</v>
       </c>
@@ -7649,44 +7816,44 @@
         <v>399</v>
       </c>
       <c r="F55" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" t="s">
         <v>38</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>3324</v>
       </c>
-      <c r="H55" t="s">
-        <v>39</v>
-      </c>
       <c r="I55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" t="s">
         <v>400</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>401</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>42</v>
       </c>
-      <c r="L55" t="s">
-        <v>48</v>
-      </c>
       <c r="M55" t="s">
+        <v>48</v>
+      </c>
+      <c r="N55" t="s">
         <v>59</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>79</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>45</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>402</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>293</v>
       </c>
-      <c r="R55" t="s">
-        <v>39</v>
-      </c>
       <c r="S55" t="s">
         <v>39</v>
       </c>
@@ -7694,19 +7861,19 @@
         <v>39</v>
       </c>
       <c r="U55" t="s">
+        <v>39</v>
+      </c>
+      <c r="V55" t="s">
         <v>403</v>
       </c>
-      <c r="V55" t="s">
-        <v>39</v>
-      </c>
       <c r="W55" t="s">
+        <v>39</v>
+      </c>
+      <c r="X55" t="s">
         <v>404</v>
       </c>
-      <c r="X55" t="s">
-        <v>39</v>
-      </c>
       <c r="Y55" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z55" t="s">
         <v>43</v>
@@ -7715,11 +7882,11 @@
         <v>43</v>
       </c>
       <c r="AB55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC55" t="s">
         <v>416</v>
       </c>
-      <c r="AC55" t="s">
-        <v>39</v>
-      </c>
       <c r="AD55" t="s">
         <v>39</v>
       </c>
@@ -7730,13 +7897,16 @@
         <v>39</v>
       </c>
       <c r="AG55" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH55" t="s">
         <v>405</v>
       </c>
-      <c r="AH55" t="s">
+      <c r="AI55" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>406</v>
       </c>
@@ -7753,77 +7923,77 @@
         <v>108</v>
       </c>
       <c r="F56" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" t="s">
         <v>38</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>132</v>
       </c>
-      <c r="H56" t="s">
-        <v>39</v>
-      </c>
       <c r="I56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" t="s">
         <v>409</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>410</v>
       </c>
-      <c r="K56" t="s">
-        <v>39</v>
-      </c>
       <c r="L56" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M56" t="s">
+        <v>48</v>
+      </c>
+      <c r="N56" t="s">
         <v>137</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>230</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>64</v>
       </c>
-      <c r="P56" t="s">
-        <v>39</v>
-      </c>
       <c r="Q56" t="s">
+        <v>39</v>
+      </c>
+      <c r="R56" t="s">
         <v>66</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>411</v>
       </c>
-      <c r="S56" t="s">
-        <v>39</v>
-      </c>
       <c r="T56" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U56" t="s">
+        <v>48</v>
+      </c>
+      <c r="V56" t="s">
         <v>49</v>
       </c>
-      <c r="V56" t="s">
-        <v>39</v>
-      </c>
       <c r="W56" t="s">
+        <v>39</v>
+      </c>
+      <c r="X56" t="s">
         <v>412</v>
       </c>
-      <c r="X56" t="s">
-        <v>39</v>
-      </c>
       <c r="Y56" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z56" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AA56" t="s">
         <v>48</v>
       </c>
       <c r="AB56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC56" t="s">
         <v>52</v>
       </c>
-      <c r="AC56" t="s">
-        <v>39</v>
-      </c>
       <c r="AD56" t="s">
         <v>39</v>
       </c>
@@ -7837,6 +8007,9 @@
         <v>39</v>
       </c>
       <c r="AH56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI56" t="s">
         <v>48</v>
       </c>
     </row>
